--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="473">
+  <dxfs count="385">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2926,694 +2926,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3824,8 +3136,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1627909" y="588818"/>
-          <a:ext cx="6840682" cy="7308273"/>
+          <a:off x="1627909" y="599952"/>
+          <a:ext cx="6840682" cy="7464136"/>
           <a:chOff x="675409" y="588818"/>
           <a:chExt cx="6840682" cy="7308273"/>
         </a:xfrm>
@@ -4478,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF41" sqref="AF41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5217,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2">
         <v>0</v>
@@ -5661,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -5837,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="2">
         <v>0</v>
@@ -7112,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -7580,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -8397,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -8483,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -9297,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="2">
         <v>0</v>
@@ -9619,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34" s="2">
         <v>0</v>
@@ -10313,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -10757,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -10841,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42" s="2">
         <v>0</v>
@@ -12090,1088 +11402,1088 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="417" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="461" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="414" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="458" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="459" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="412" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="456" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="457" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="410" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="455" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="409" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="454" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="408" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="453" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:XFD24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 N5:XFD7 A2:M4 Q2:XFD4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="407" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="452" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="406" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="273" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="274" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="275" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="403" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="271" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="272" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="401" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="269" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="270" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="399" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="268" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="398" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="267" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="397" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="266" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="396" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="265" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="395" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="111" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="394" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="438" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="391" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="436" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="437" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="389" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="434" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="435" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="387" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="433" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="386" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="432" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="385" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="431" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="384" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="430" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="383" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="427" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="428" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="380" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="425" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="426" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="378" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="423" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="424" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="376" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="422" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="375" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="421" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="374" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="420" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="373" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="419" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="361" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="405" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="406" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="407" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="358" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="403" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="404" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="356" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="401" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="402" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="354" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="400" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="353" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="399" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="352" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="398" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="351" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="397" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="350" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="394" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="396" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="347" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="392" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="393" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="345" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="390" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="391" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="343" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="389" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="342" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="388" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="341" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="387" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="340" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="386" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="339" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="350" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="336" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="348" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="349" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="334" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="346" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="347" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="332" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="345" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="331" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="344" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="330" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="343" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="329" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="342" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="328" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="373" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="325" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="370" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="371" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="323" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="368" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="369" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="321" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="367" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="320" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="366" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="319" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="365" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="318" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="364" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="317" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="141" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="142" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="314" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="139" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="140" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="312" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="137" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="138" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="310" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="136" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="309" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="135" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="308" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="134" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="307" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="133" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="295" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="339" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="340" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="341" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="292" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="337" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="338" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="290" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="335" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="336" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="288" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="334" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="287" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="333" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="286" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="332" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="285" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="331" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="284" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="218" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="281" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="216" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="217" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="279" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="214" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="215" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="277" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="213" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="276" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="212" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="275" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="211" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="274" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="210" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="273" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="207" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="208" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="270" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="205" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="206" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="268" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="203" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="204" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="266" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="202" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="265" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="201" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="264" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="200" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="263" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="199" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="262" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="295" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="296" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="297" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="259" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="293" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="294" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="257" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="291" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="292" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="255" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="290" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="254" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="289" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="253" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="288" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="252" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="287" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="251" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="285" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="248" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="282" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="283" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="246" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="280" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="281" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="244" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="279" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="243" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="278" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="242" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="277" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="241" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="276" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="240" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="262" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="237" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="260" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="261" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="235" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="258" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="259" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="233" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="257" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="232" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="256" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="231" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="255" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="230" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="254" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="229" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="251" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="252" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="253" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="226" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="249" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="250" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="224" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="247" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="248" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="222" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="246" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="221" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="245" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="220" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="244" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="219" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="243" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="218" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="130" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="215" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="128" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="129" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="213" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="126" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="127" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="211" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="125" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="210" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="124" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="209" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="123" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="208" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="122" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="207" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="229" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="230" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="231" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="204" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="227" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="228" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="202" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="225" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="200" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="224" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="199" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="223" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="198" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="222" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="197" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="221" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="196" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="197" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="194" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="195" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="191" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="192" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="193" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="189" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="191" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="188" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="190" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="187" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="189" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="186" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="188" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="185" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="185" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="186" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="182" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="183" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="184" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="180" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="181" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="182" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="178" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="180" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="177" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="179" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="176" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="178" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="175" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="177" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="174" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="174" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="171" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="172" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="173" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="170" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="171" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="167" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="169" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="166" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="168" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="165" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="167" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="164" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="166" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="163" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="163" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="164" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="161" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="162" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="160" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="156" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="158" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="157" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="154" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="155" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="152" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="153" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="148" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="149" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="145" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="147" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="145" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="144" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -90,93 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="385">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="374">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3791,7 +3705,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ9" sqref="AQ9"/>
+      <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11402,1600 +11316,1600 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="384" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="461" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="381" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="458" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="459" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="379" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="456" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="457" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="377" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="455" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="376" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="454" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="375" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="453" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:XFD24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 N5:XFD7 A2:M4 Q2:XFD4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="374" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="452" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="373" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="273" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="274" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="275" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="370" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="271" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="272" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="368" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="269" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="270" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="366" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="268" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="365" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="267" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="364" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="266" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="363" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="265" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="362" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="111" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="361" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="438" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="358" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="436" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="437" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="356" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="434" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="435" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="354" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="433" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="353" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="432" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="352" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="431" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="351" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="430" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="350" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="427" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="428" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="347" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="425" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="426" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="345" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="423" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="424" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="343" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="422" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="342" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="421" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="341" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="420" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="340" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="419" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="339" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="405" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="406" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="407" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="336" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="334" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="401" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="332" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="400" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="331" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="399" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="330" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="398" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="329" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="397" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="328" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="394" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="396" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="325" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="392" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="393" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="323" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="390" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="391" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="321" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="389" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="320" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="388" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="319" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="387" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="318" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="386" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="317" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="350" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="314" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="348" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="349" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="312" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="346" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="347" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="310" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="345" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="309" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="344" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="308" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="343" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="307" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="342" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="306" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="373" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="303" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="370" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="371" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="301" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="368" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="369" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="299" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="367" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="298" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="366" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="297" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="365" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="296" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="364" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="295" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="141" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="142" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="292" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="139" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="140" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="290" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="137" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="138" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="288" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="136" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="287" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="135" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="286" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="134" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="285" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="133" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="284" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="339" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="340" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="341" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="281" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="337" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="338" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="279" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="335" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="336" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="277" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="334" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="276" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="333" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="275" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="332" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="274" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="331" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="273" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="218" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="270" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="216" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="217" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="268" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="214" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="215" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="266" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="213" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="265" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="212" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="264" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="211" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="263" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="210" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="262" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="207" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="208" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="259" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="205" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="206" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="257" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="203" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="204" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="255" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="202" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="254" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="201" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="253" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="200" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="252" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="199" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="251" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="295" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="296" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="297" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="248" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="293" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="294" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="246" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="291" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="292" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="244" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="290" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="243" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="289" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="242" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="288" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="241" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="287" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="240" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="285" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="237" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="282" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="283" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="235" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="280" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="281" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="233" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="279" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="232" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="278" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="231" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="277" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="230" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="276" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="229" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="262" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="226" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="260" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="261" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="224" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="258" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="259" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="222" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="257" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="221" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="256" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="220" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="255" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="219" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="218" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="251" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="252" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="253" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="215" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="249" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="250" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="213" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="247" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="248" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="211" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="246" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="210" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="245" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="209" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="244" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="208" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="243" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="207" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="130" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="204" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="128" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="129" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="202" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="126" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="127" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="200" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="125" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="199" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="124" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="198" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="123" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="197" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="122" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="196" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="229" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="230" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="231" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="193" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="227" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="228" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="191" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="225" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="189" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="224" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="188" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="223" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="187" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="222" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="186" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="221" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="185" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="197" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="182" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="194" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="180" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="192" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="193" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="178" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="191" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="177" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="190" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="176" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="189" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="175" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="188" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="174" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="185" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="186" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="171" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="183" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="184" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="169" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="181" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="182" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="167" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="166" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="179" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="165" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="178" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="164" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="177" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="163" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="174" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="160" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="172" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="173" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="158" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="170" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="171" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="156" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="169" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="155" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="154" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="167" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="153" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="166" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="152" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="164" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="149" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="161" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="162" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="159" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="160" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="145" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="144" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="157" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="156" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="142" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="155" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="141" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="153" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="150" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="151" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="136" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="148" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="149" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="134" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="147" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="133" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="132" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="145" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="131" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="130" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="127" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="123" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="122" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="121" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="120" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="117" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="115" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="113" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="112" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="111" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="109" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="106" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="104" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="102" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="100" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="98" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="95" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="93" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="90" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="88" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="84" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="78" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="66" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="65" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="58" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="49" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="43" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,6 +59,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339933"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,7 +89,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -86,11 +99,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="374">
+  <dxfs count="502">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -178,6 +225,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -264,6 +339,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -350,6 +453,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -436,6 +567,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -522,6 +681,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -608,6 +795,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -694,6 +909,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -780,6 +1023,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -866,6 +1137,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -953,6 +1252,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1631,6 +1940,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -2845,6 +3230,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -3015,8 +3476,542 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF339933"/>
+      <color rgb="FF006600"/>
+      <color rgb="FF333399"/>
+      <color rgb="FF000066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3705,7 +4700,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4112,9 +5107,9 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="3">
         <v>0</v>
       </c>
       <c r="AH3" s="2">
@@ -4263,17 +5258,17 @@
       <c r="AE4" s="2">
         <v>0</v>
       </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2">
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
         <v>0</v>
       </c>
       <c r="AH4" s="2">
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ4" s="2">
         <v>0</v>
@@ -4443,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AP5" s="2">
         <v>0</v>
@@ -4592,9 +5587,9 @@
         <v>0</v>
       </c>
       <c r="AN6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="4">
         <v>0</v>
       </c>
       <c r="AP6" s="2">
@@ -4743,10 +5738,10 @@
       <c r="AM7" s="2">
         <v>0</v>
       </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
         <v>0</v>
       </c>
       <c r="AP7" s="2">
@@ -4836,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -4887,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -5063,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AT9" s="2">
         <v>0</v>
@@ -5280,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -5358,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
@@ -5441,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -5733,9 +6728,9 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
+        <v>13</v>
+      </c>
+      <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="2">
@@ -5884,10 +6879,10 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="2">
@@ -6189,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -6338,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -6657,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -6806,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -6979,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="2">
         <v>0</v>
@@ -7018,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM22" s="2">
         <v>0</v>
@@ -7089,15 +8084,15 @@
         <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
+        <v>13</v>
+      </c>
+      <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="2">
@@ -7113,9 +8108,9 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
+        <v>14</v>
+      </c>
+      <c r="T23" s="4">
         <v>0</v>
       </c>
       <c r="U23" s="2">
@@ -7131,19 +8126,19 @@
         <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="2">
         <v>0</v>
       </c>
       <c r="AC23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD23" s="2">
         <v>0</v>
@@ -7246,10 +8241,10 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="2">
@@ -7264,10 +8259,10 @@
       <c r="R24" s="2">
         <v>0</v>
       </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
         <v>0</v>
       </c>
       <c r="U24" s="2">
@@ -7280,19 +8275,19 @@
         <v>0</v>
       </c>
       <c r="X24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC24" s="2">
         <v>0</v>
@@ -7447,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -7465,10 +8460,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ25" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK25" s="2">
         <v>0</v>
@@ -7617,13 +8612,13 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ26" s="2">
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -7691,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -7709,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -7721,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -7766,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI27" s="2">
         <v>0</v>
@@ -7781,9 +8776,9 @@
         <v>0</v>
       </c>
       <c r="AM27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="2">
+        <v>14</v>
+      </c>
+      <c r="AN27" s="4">
         <v>0</v>
       </c>
       <c r="AO27" s="2">
@@ -7852,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -7912,10 +8907,10 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG28" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH28" s="2">
         <v>0</v>
@@ -7932,10 +8927,10 @@
       <c r="AL28" s="2">
         <v>0</v>
       </c>
-      <c r="AM28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="2">
+      <c r="AM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="4">
         <v>0</v>
       </c>
       <c r="AO28" s="2">
@@ -8004,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -8159,16 +9154,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -8240,10 +9235,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP30" s="2">
         <v>0</v>
@@ -8314,16 +9309,16 @@
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2">
         <v>1</v>
@@ -8383,13 +9378,13 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN31" s="2">
         <v>0</v>
@@ -8466,16 +9461,16 @@
         <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>6</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>11</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -8523,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AH32" s="2">
         <v>0</v>
@@ -8532,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK32" s="2">
         <v>0</v>
@@ -8620,13 +9615,13 @@
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
+      <c r="O33" s="2">
+        <v>14</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
         <v>0</v>
       </c>
       <c r="R33" s="2">
@@ -8699,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP33" s="2">
         <v>0</v>
@@ -8772,13 +9767,13 @@
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
         <v>0</v>
       </c>
       <c r="R34" s="2">
@@ -8830,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="AH34" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI34" s="2">
         <v>0</v>
@@ -8845,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AN34" s="2">
         <v>0</v>
@@ -8922,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
@@ -8931,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -8964,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC35" s="2">
         <v>0</v>
@@ -9003,9 +9998,9 @@
         <v>0</v>
       </c>
       <c r="AO35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP35" s="3">
         <v>0</v>
       </c>
       <c r="AQ35" s="2">
@@ -9077,16 +10072,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P36" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -9154,10 +10149,10 @@
       <c r="AN36" s="2">
         <v>0</v>
       </c>
-      <c r="AO36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="2">
+      <c r="AO36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="3">
         <v>0</v>
       </c>
       <c r="AQ36" s="2">
@@ -9292,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK37" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL37" s="2">
         <v>0</v>
@@ -9396,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
@@ -9438,10 +10433,10 @@
         <v>1</v>
       </c>
       <c r="AH38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ38" s="2">
         <v>0</v>
@@ -9450,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="AL38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN38" s="2">
         <v>0</v>
@@ -9465,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR38" s="2">
         <v>0</v>
@@ -9539,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -9593,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="AI39" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ39" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
@@ -9676,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -9751,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -9906,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM41" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN41" s="2">
         <v>0</v>
@@ -9921,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
@@ -9983,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -10001,10 +10996,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -10067,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="AO42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
@@ -10210,13 +11205,13 @@
         <v>0</v>
       </c>
       <c r="AL43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM43" s="2">
         <v>0</v>
       </c>
       <c r="AN43" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO43" s="2">
         <v>0</v>
@@ -10225,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR43" s="2">
         <v>0</v>
@@ -10287,10 +11282,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N44" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
@@ -10377,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR44" s="2">
         <v>0</v>
@@ -10436,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -11315,1602 +12310,1569 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="373" priority="460" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="501" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="465" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="370" priority="458" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="498" priority="462" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="463" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="368" priority="456" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="496" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="366" priority="455" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="494" priority="459" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="365" priority="454" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="493" priority="458" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="364" priority="453" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="492" priority="457" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:XFD24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 N5:XFD7 A2:M4 Q2:XFD4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="363" priority="452" operator="equal">
+  <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:XFD4 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="491" priority="456" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="362" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="277" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="278" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="279" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="359" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="275" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="276" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="357" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="273" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="274" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="355" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="272" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="354" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="271" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="353" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="270" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="352" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="269" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="351" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="115" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="350" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="347" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="440" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="441" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="345" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="343" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="437" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="342" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="436" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="341" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="435" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="340" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="339" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="431" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="432" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="336" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="429" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="430" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="334" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="332" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="426" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="331" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="425" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="330" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="424" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="329" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="423" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="328" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="409" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="410" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="411" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="407" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="408" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="323" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="405" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="406" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="321" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="404" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="320" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="403" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="319" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="402" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="318" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="401" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="317" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="398" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="314" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="397" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="312" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="394" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="310" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="393" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="309" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="392" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="308" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="391" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="307" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="390" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="306" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="354" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="303" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="352" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="353" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="301" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="350" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="351" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="299" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="349" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="298" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="348" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="297" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="347" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="296" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="346" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="295" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="377" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="292" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="374" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="375" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="290" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="372" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="373" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="288" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="371" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="287" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="370" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="286" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="369" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="285" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="368" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="284" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="145" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="146" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="147" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="281" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="143" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="144" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="279" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="141" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="142" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="277" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="140" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="276" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="139" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="275" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="138" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="274" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="137" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="273" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="343" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="344" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="270" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="341" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="342" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="268" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="340" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="266" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="338" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="265" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="337" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="264" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="336" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="263" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="335" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="262" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="259" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="257" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="255" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="217" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="254" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="216" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="253" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="215" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="252" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="214" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="251" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="211" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="212" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="248" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="209" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="210" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="246" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="207" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="208" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="244" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="206" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="243" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="205" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="242" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="204" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="241" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="203" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="240" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="299" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="300" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="237" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="297" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="298" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="235" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="295" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="296" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="233" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="294" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="232" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="293" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="231" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="292" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="230" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="291" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="229" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="289" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="226" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="286" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="287" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="224" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="284" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="285" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="222" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="283" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="221" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="282" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="220" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="281" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="219" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="280" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="218" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="266" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="215" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="264" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="265" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="213" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="211" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="261" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="210" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="260" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="209" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="259" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="258" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="207" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="255" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="256" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="204" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="254" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="202" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="251" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="200" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="250" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="199" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="249" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="198" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="248" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="197" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="247" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="196" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="134" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="193" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="132" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="133" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="191" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="130" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="131" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="189" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="188" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="128" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="187" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="127" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="186" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="126" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="185" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="233" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="234" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="182" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="231" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="232" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="180" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="229" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="230" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="178" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="228" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="177" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="227" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="176" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="226" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="175" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="225" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="174" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="201" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="171" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="198" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="199" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="169" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="196" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="197" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="167" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="195" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="166" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="194" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="165" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="193" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="164" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="192" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="163" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="189" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="190" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="160" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="187" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="188" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="158" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="186" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="184" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="155" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="183" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="154" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="182" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="153" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="181" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="152" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="178" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="149" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="176" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="177" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="147" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="175" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="145" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="173" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="143" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="171" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="142" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="170" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="167" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="168" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="138" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="165" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="166" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="136" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="163" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="164" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="162" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="133" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="161" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="132" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="131" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="159" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="130" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="157" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="127" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="154" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="155" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="125" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="152" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="153" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="123" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="151" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="122" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="150" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="121" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="149" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="148" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="123" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="124" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="121" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="122" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="119" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="120" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="118" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="117" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="116" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="109" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="111" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="108" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="107" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="106" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="105" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="104" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="101" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="99" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="97" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="98" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="95" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="94" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="93" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="90" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="88" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="89" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="86" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="87" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="85" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="84" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="83" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="82" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="76" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="80" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="77" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="78" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="74" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="73" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="72" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="71" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="69" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="66" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="64" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="65" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="63" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="62" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="61" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="60" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="58" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="56" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="54" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="52" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="51" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="50" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="49" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="40" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="38" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="33" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="30" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="27" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="149" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="146" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="144" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="142" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="141" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="140" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="139" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>99</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="2" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="1" operator="equal">
+      <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -90,7 +90,265 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="374">
+  <dxfs count="407">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3705,7 +3963,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8"/>
+      <selection activeCell="AM22" sqref="AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4085,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2">
         <v>5</v>
@@ -5143,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -5337,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ11" s="2">
         <v>5</v>
@@ -5575,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="2">
         <v>5</v>
@@ -6967,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V22" s="2">
         <v>5</v>
@@ -7393,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L25" s="2">
         <v>5</v>
@@ -7456,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="2">
         <v>0</v>
@@ -8082,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="2">
         <v>0</v>
@@ -9301,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN37" s="2">
         <v>5</v>
@@ -9989,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P42" s="2">
         <v>5</v>
@@ -11315,1601 +11573,1601 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="373" priority="460" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
+    <cfRule type="cellIs" dxfId="406" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="461" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="370" priority="458" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
+    <cfRule type="cellIs" dxfId="403" priority="458" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="459" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="368" priority="456" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
+    <cfRule type="cellIs" dxfId="401" priority="456" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="457" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="366" priority="455" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
+    <cfRule type="cellIs" dxfId="399" priority="455" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="365" priority="454" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
+    <cfRule type="cellIs" dxfId="398" priority="454" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="364" priority="453" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
+    <cfRule type="cellIs" dxfId="397" priority="453" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:XFD24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 N5:XFD7 A2:M4 Q2:XFD4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38">
-    <cfRule type="cellIs" dxfId="363" priority="452" operator="equal">
+  <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:XFD10 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:XFD24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 A5:J7 N5:XFD7 A2:M4 Q2:XFD4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:XFD25">
+    <cfRule type="cellIs" dxfId="396" priority="452" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="362" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="273" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="274" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="275" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="359" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="271" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="272" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="357" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="269" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="270" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="355" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="268" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="354" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="267" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="353" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="266" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="352" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="265" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="351" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="111" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="350" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="438" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="347" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="436" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="437" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="345" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="434" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="435" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="343" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="433" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="342" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="432" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="341" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="431" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="340" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="430" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="339" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="427" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="428" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="336" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="425" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="426" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="334" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="423" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="424" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="332" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="422" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="331" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="421" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="330" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="420" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="329" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="419" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="328" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="405" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="406" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="407" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="403" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="404" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="323" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="401" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="402" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="321" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="400" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="320" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="399" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="319" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="398" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="318" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="397" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="317" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="394" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="396" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="314" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="392" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="393" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="312" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="390" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="391" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="310" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="389" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="309" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="388" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="308" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="387" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="307" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="386" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="306" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="350" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="303" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="348" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="349" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="301" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="346" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="347" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="299" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="345" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="298" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="344" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="297" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="343" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="296" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="342" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="295" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="373" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="292" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="370" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="371" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="290" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="368" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="369" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="288" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="367" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="287" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="366" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="286" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="365" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="285" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="364" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="284" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="141" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="142" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="281" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="139" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="140" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="279" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="137" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="138" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="277" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="136" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="276" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="135" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="275" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="134" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="274" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="133" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="273" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="339" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="340" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="341" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="270" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="337" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="338" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="268" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="335" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="336" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="266" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="334" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="265" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="333" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="264" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="332" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="263" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="331" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="262" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="218" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="259" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="216" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="217" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="257" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="214" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="215" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="255" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="213" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="254" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="212" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="253" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="211" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="252" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="210" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="251" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="207" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="208" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="248" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="205" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="206" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="246" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="203" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="204" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="244" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="202" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="243" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="201" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="242" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="200" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="241" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="199" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="240" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="295" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="296" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="297" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="237" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="293" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="294" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="235" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="291" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="292" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="233" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="290" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="232" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="289" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="231" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="288" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="230" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="287" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="229" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="285" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="226" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="282" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="283" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="224" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="280" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="281" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="222" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="279" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="221" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="278" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="220" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="277" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="219" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="276" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="218" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="262" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="215" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="260" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="261" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="213" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="258" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="259" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="211" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="257" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="210" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="256" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="209" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="255" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="254" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="207" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="251" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="252" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="253" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="204" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="249" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="250" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="202" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="247" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="248" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="200" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="246" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="199" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="245" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="198" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="244" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="197" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="243" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="196" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="130" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="193" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="128" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="129" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="191" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="126" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="127" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="189" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="125" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="188" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="124" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="187" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="123" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="186" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="122" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="185" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="229" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="230" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="231" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="182" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="227" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="228" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="180" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="225" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="178" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="224" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="177" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="223" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="176" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="222" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="175" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="174" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="197" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="171" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="194" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="195" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="169" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="192" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="193" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="167" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="191" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="166" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="190" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="165" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="189" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="164" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="188" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="163" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="185" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="186" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="160" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="183" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="184" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="158" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="181" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="182" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="180" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="155" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="179" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="154" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="178" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="153" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="177" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="152" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="174" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="149" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="172" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="173" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="147" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="170" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="171" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="145" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="169" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="168" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="143" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="167" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="142" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="166" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="163" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="164" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="138" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="161" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="162" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="136" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="159" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="160" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="158" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="133" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="157" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="132" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="156" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="131" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="155" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="130" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="153" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="127" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="150" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="151" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="125" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="148" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="149" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="123" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="147" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="122" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="121" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="145" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="144" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="119" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="120" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="121" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="117" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="118" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="115" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="116" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="114" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="113" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="112" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="109" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="109" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="106" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="107" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="104" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="105" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="103" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="102" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="100" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="97" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="98" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="95" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="96" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="93" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="94" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="92" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="91" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="90" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="89" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="86" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="84" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="82" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="83" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="81" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="79" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="78" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="76" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="75" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="73" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="71" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="72" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="69" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="67" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="65" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="63" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="61" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="56" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="53" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="54" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="51" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="52" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="49" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="50" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="48" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="47" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="45" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="42" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="40" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="39" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="37" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="36" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +108,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="502">
+  <dxfs count="367">
     <dxf>
       <fill>
         <patternFill>
@@ -135,1032 +134,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12311,1567 +11284,1567 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="501" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="465" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="498" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="462" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="463" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="496" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="494" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="459" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="493" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="458" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="492" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="457" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:XFD4 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="491" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="456" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="490" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="277" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="278" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="279" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="487" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="275" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="276" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="485" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="273" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="274" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="483" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="272" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="482" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="271" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="481" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="270" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="480" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="269" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="479" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="115" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="478" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="475" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="440" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="441" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="473" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="471" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="437" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="470" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="436" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="469" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="435" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="468" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="467" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="431" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="432" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="464" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="429" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="430" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="462" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="460" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="426" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="459" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="425" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="458" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="424" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="457" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="423" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="456" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="409" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="410" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="411" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="453" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="407" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="408" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="451" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="405" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="406" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="449" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="404" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="448" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="403" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="447" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="402" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="446" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="401" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="445" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="398" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="442" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="397" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="440" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="394" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="438" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="393" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="437" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="392" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="436" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="391" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="435" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="390" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="434" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="354" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="431" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="352" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="353" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="429" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="350" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="351" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="427" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="349" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="426" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="348" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="425" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="347" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="424" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="346" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="423" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="377" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="420" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="374" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="375" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="418" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="372" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="373" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="416" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="371" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="415" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="370" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="414" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="369" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="413" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="368" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="412" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="145" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="146" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="147" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="409" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="143" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="144" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="407" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="141" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="142" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="405" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="140" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="404" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="139" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="403" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="138" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="402" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="137" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="401" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="343" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="344" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="398" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="341" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="342" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="396" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="340" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="394" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="338" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="393" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="337" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="392" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="336" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="391" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="335" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="390" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="387" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="385" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="383" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="217" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="382" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="216" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="381" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="215" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="380" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="214" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="379" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="211" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="212" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="376" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="209" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="210" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="374" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="207" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="208" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="372" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="206" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="371" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="370" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="204" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="369" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="203" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="368" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="299" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="300" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="365" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="297" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="298" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="363" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="295" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="296" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="361" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="294" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="360" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="293" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="359" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="358" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="291" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="357" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="289" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="354" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="286" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="287" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="352" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="284" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="285" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="350" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="283" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="349" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="282" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="348" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="281" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="347" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="346" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="266" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="343" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="264" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="265" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="341" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="339" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="261" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="338" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="260" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="337" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="259" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="336" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="258" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="335" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="255" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="256" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="332" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="254" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="330" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="251" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="328" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="250" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="327" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="249" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="326" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="248" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="325" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="247" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="324" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="134" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="321" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="132" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="133" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="319" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="130" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="131" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="317" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="316" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="128" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="315" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="127" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="314" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="126" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="313" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="233" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="234" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="310" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="231" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="232" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="308" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="229" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="230" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="306" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="228" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="305" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="227" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="304" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="226" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="303" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="225" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="302" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="201" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="299" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="198" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="199" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="297" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="196" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="197" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="295" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="195" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="294" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="194" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="293" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="193" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="292" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="192" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="291" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="189" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="190" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="288" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="188" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="286" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="186" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="284" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="184" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="283" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="183" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="282" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="182" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="281" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="181" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="280" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="178" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="277" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="176" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="177" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="275" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="175" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="273" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="173" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="272" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="271" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="171" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="270" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="170" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="269" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="167" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="168" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="266" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="165" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="166" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="264" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="262" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="162" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="261" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="161" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="260" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="259" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="159" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="258" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="157" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="255" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="154" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="155" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="253" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="152" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="251" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="151" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="250" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="150" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="249" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="149" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="248" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="247" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="123" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="124" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="244" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="122" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="242" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="119" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="120" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="240" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="118" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="239" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="238" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="116" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="237" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="234" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="111" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="232" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="108" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="230" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="107" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="229" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="228" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="105" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="227" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="226" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="223" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="99" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="221" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="219" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="218" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="95" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="217" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="216" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="215" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="212" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="210" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="86" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="208" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="85" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="207" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="206" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="205" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="204" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="201" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="199" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="197" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="196" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="195" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="194" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="193" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="190" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="188" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="186" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="185" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="184" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="183" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="182" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="179" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="177" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="175" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="174" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="173" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="172" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="171" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="168" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="166" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="164" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="163" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="162" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="161" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="160" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="157" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="155" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="153" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="152" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="151" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="150" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="149" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="146" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="144" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="142" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="141" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="140" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="139" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -48,7 +48,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,6 +58,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339933"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,7 +88,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -86,11 +98,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="407">
+  <dxfs count="367">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -867,6 +913,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1211,6 +1333,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2673,6 +2805,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2833,448 +2975,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF339933"/>
+      <color rgb="FF006600"/>
+      <color rgb="FF333399"/>
+      <color rgb="FF000066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3963,7 +3673,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM22" sqref="AM22"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4343,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
         <v>5</v>
@@ -4370,9 +4080,9 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="3">
         <v>0</v>
       </c>
       <c r="AH3" s="2">
@@ -4521,17 +4231,17 @@
       <c r="AE4" s="2">
         <v>0</v>
       </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2">
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
         <v>0</v>
       </c>
       <c r="AH4" s="2">
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ4" s="2">
         <v>0</v>
@@ -4701,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AP5" s="2">
         <v>0</v>
@@ -4850,9 +4560,9 @@
         <v>0</v>
       </c>
       <c r="AN6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="4">
         <v>0</v>
       </c>
       <c r="AP6" s="2">
@@ -5001,10 +4711,10 @@
       <c r="AM7" s="2">
         <v>0</v>
       </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
         <v>0</v>
       </c>
       <c r="AP7" s="2">
@@ -5094,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -5145,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -5321,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AT9" s="2">
         <v>0</v>
@@ -5401,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -5538,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -5595,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="2">
         <v>5</v>
@@ -5616,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
@@ -5699,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -5833,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>5</v>
@@ -5991,9 +5701,9 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
+        <v>13</v>
+      </c>
+      <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="2">
@@ -6142,10 +5852,10 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="2">
@@ -6447,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -6596,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -6915,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -7064,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -7225,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2">
         <v>5</v>
@@ -7237,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="2">
         <v>0</v>
@@ -7276,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM22" s="2">
         <v>0</v>
@@ -7347,15 +7057,15 @@
         <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
+        <v>13</v>
+      </c>
+      <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="2">
@@ -7371,9 +7081,9 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
+        <v>14</v>
+      </c>
+      <c r="T23" s="4">
         <v>0</v>
       </c>
       <c r="U23" s="2">
@@ -7389,19 +7099,19 @@
         <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="2">
         <v>0</v>
       </c>
       <c r="AC23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD23" s="2">
         <v>0</v>
@@ -7504,10 +7214,10 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="2">
@@ -7522,10 +7232,10 @@
       <c r="R24" s="2">
         <v>0</v>
       </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
         <v>0</v>
       </c>
       <c r="U24" s="2">
@@ -7538,19 +7248,19 @@
         <v>0</v>
       </c>
       <c r="X24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC24" s="2">
         <v>0</v>
@@ -7651,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>5</v>
@@ -7705,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -7714,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG25" s="2">
         <v>0</v>
@@ -7723,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ25" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK25" s="2">
         <v>0</v>
@@ -7875,13 +7585,13 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ26" s="2">
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -7949,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -7967,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -7979,10 +7689,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -8024,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI27" s="2">
         <v>0</v>
@@ -8039,9 +7749,9 @@
         <v>0</v>
       </c>
       <c r="AM27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="2">
+        <v>14</v>
+      </c>
+      <c r="AN27" s="4">
         <v>0</v>
       </c>
       <c r="AO27" s="2">
@@ -8110,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -8170,10 +7880,10 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG28" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH28" s="2">
         <v>0</v>
@@ -8190,10 +7900,10 @@
       <c r="AL28" s="2">
         <v>0</v>
       </c>
-      <c r="AM28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="2">
+      <c r="AM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="4">
         <v>0</v>
       </c>
       <c r="AO28" s="2">
@@ -8262,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -8340,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM29" s="2">
         <v>0</v>
@@ -8417,16 +8127,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -8498,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP30" s="2">
         <v>0</v>
@@ -8572,16 +8282,16 @@
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2">
         <v>1</v>
@@ -8641,13 +8351,13 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN31" s="2">
         <v>0</v>
@@ -8724,16 +8434,16 @@
         <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>6</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>11</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -8781,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AH32" s="2">
         <v>0</v>
@@ -8790,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK32" s="2">
         <v>0</v>
@@ -8878,13 +8588,13 @@
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
+      <c r="O33" s="2">
+        <v>14</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
         <v>0</v>
       </c>
       <c r="R33" s="2">
@@ -8957,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP33" s="2">
         <v>0</v>
@@ -9030,13 +8740,13 @@
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
         <v>0</v>
       </c>
       <c r="R34" s="2">
@@ -9088,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AH34" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI34" s="2">
         <v>0</v>
@@ -9103,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AN34" s="2">
         <v>0</v>
@@ -9180,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
@@ -9189,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -9222,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC35" s="2">
         <v>0</v>
@@ -9261,9 +8971,9 @@
         <v>0</v>
       </c>
       <c r="AO35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP35" s="3">
         <v>0</v>
       </c>
       <c r="AQ35" s="2">
@@ -9335,16 +9045,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P36" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -9412,10 +9122,10 @@
       <c r="AN36" s="2">
         <v>0</v>
       </c>
-      <c r="AO36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="2">
+      <c r="AO36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="3">
         <v>0</v>
       </c>
       <c r="AQ36" s="2">
@@ -9550,16 +9260,16 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK37" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL37" s="2">
         <v>0</v>
       </c>
       <c r="AM37" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="2">
         <v>5</v>
@@ -9654,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
@@ -9696,10 +9406,10 @@
         <v>1</v>
       </c>
       <c r="AH38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ38" s="2">
         <v>0</v>
@@ -9708,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AL38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN38" s="2">
         <v>0</v>
@@ -9723,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR38" s="2">
         <v>0</v>
@@ -9797,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -9851,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="AI39" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ39" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
@@ -9934,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -10009,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -10164,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM41" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN41" s="2">
         <v>0</v>
@@ -10179,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR41" s="2">
         <v>1</v>
@@ -10241,13 +9951,13 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2">
         <v>5</v>
@@ -10259,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -10325,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AO42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
@@ -10468,13 +10178,13 @@
         <v>0</v>
       </c>
       <c r="AL43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM43" s="2">
         <v>0</v>
       </c>
       <c r="AN43" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO43" s="2">
         <v>0</v>
@@ -10483,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR43" s="2">
         <v>0</v>
@@ -10545,10 +10255,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N44" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
@@ -10635,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR44" s="2">
         <v>0</v>
@@ -10694,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -11573,1602 +11283,1569 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
-    <cfRule type="cellIs" dxfId="406" priority="460" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="366" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="465" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
-    <cfRule type="cellIs" dxfId="403" priority="458" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="363" priority="462" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="463" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
-    <cfRule type="cellIs" dxfId="401" priority="456" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="361" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
-    <cfRule type="cellIs" dxfId="399" priority="455" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="359" priority="459" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
-    <cfRule type="cellIs" dxfId="398" priority="454" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="358" priority="458" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:AX10 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:AX24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 A5:J7 N5:AX7 A2:M4 Q2:AX4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:AX25">
-    <cfRule type="cellIs" dxfId="397" priority="453" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="357" priority="457" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 AA26:AR28 A15:U15 AB8:XFD10 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 I30:AR30 A21:B23 AX19:XFD24 A24:AW24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 A5:J7 N5:XFD7 A2:M4 Q2:XFD4 H42:AC42 A40:D42 AL32:AR36 I32:I33 F36:AK36 A34:I35 M32:N34 R34:AK34 R32:S33 W32:AK33 I31:S31 W31:AR31 M35:AK35 J32:L32 H40:V41 Z40:AC41 F37:AR38 L8:X10 G29:AR29 A25:XFD25">
-    <cfRule type="cellIs" dxfId="396" priority="452" operator="equal">
+  <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:XFD4 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28">
+    <cfRule type="cellIs" dxfId="356" priority="456" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="395" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="277" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="278" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="279" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="392" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="275" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="276" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="390" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="273" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="274" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="388" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="272" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="387" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="271" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="386" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="270" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="385" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="269" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="384" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="115" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="383" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="380" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="440" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="441" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="378" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="376" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="437" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="375" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="436" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="374" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="435" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="373" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="372" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="431" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="432" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="369" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="429" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="430" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="367" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="365" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="426" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="364" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="425" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="363" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="424" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="362" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="423" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="361" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="409" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="410" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="411" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="358" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="407" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="408" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="356" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="405" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="406" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="354" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="404" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="353" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="403" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="352" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="402" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="351" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="401" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="350" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="398" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="347" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="397" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="345" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="394" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="343" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="393" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="342" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="392" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="341" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="391" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="340" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="390" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="339" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="354" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="336" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="352" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="353" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="334" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="350" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="351" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="332" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="349" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="331" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="348" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="330" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="347" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="329" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="346" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="328" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="377" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="325" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="374" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="375" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="323" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="372" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="373" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="321" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="371" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="320" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="370" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="319" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="369" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="318" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="368" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="317" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="145" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="146" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="147" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="314" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="143" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="144" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="312" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="141" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="142" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="310" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="140" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="309" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="139" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="308" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="138" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="307" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="137" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="306" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="343" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="344" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="303" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="341" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="342" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="301" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="340" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="299" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="338" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="298" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="337" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="297" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="336" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="296" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="335" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="295" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="292" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="290" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="288" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="217" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="287" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="216" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="286" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="215" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="285" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="214" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="284" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="211" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="212" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="281" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="209" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="210" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="279" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="207" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="208" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="277" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="206" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="276" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="275" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="204" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="274" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="203" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="273" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="299" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="300" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="270" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="297" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="298" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="268" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="295" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="296" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="266" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="294" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="265" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="293" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="264" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="263" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="291" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="262" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="289" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="259" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="286" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="287" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="257" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="284" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="285" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="255" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="283" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="254" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="282" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="253" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="281" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="252" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="251" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="266" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="248" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="264" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="265" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="246" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="244" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="261" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="243" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="260" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="242" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="259" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="241" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="258" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="240" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="255" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="256" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="237" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="254" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="235" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="251" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="233" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="250" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="232" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="249" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="231" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="248" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="230" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="247" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="229" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="134" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="226" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="132" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="133" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="224" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="130" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="131" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="222" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="221" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="128" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="220" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="127" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="219" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="126" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="218" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="233" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="234" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="215" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="231" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="232" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="213" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="229" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="230" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="211" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="228" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="210" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="227" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="209" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="226" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="225" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="201" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="204" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="198" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="199" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="202" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="196" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="197" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="200" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="195" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="199" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="194" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="198" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="193" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="197" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="192" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="196" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="189" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="190" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="193" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="188" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="191" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="186" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="189" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="184" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="188" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="183" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="187" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="182" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="186" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="181" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="185" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="178" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="182" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="176" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="177" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="180" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="175" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="178" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="173" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="177" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="176" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="171" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="175" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="170" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="174" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="167" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="168" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="171" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="165" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="166" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="169" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="167" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="162" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="166" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="161" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="165" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="164" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="159" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="163" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="157" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="160" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="154" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="155" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="158" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="152" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="156" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="151" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="155" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="150" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="154" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="149" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="153" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="152" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="123" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="124" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="149" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="122" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="147" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="119" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="120" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="145" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="118" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="144" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="143" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="116" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="142" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="139" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="111" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="137" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="108" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="135" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="107" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="134" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="105" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="132" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="131" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="128" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="99" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="126" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="124" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="123" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="95" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="122" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="121" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="120" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="117" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="115" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="86" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="113" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="85" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="111" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="110" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="109" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="106" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="104" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="102" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="101" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="99" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="98" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="95" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="88" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="87" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="84" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="82" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="80" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="79" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="77" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="76" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="73" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="69" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="68" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="60" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:Q34">
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+  <conditionalFormatting sqref="T31:V33">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
-      <formula>99</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -108,7 +108,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="367">
+  <dxfs count="648">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -117,6 +138,106 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF006600"/>
@@ -126,6 +247,2858 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF333399"/>
         </patternFill>
       </fill>
@@ -133,11 +3106,132 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF000066"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -224,6 +3318,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -310,6 +3432,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -396,6 +3546,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -482,6 +3660,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -568,6 +3774,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -654,6 +3888,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -826,6 +4088,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -912,6 +4202,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -988,6 +4316,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1074,6 +4430,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1160,6 +4544,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1246,6 +4658,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1332,6 +4772,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1418,6 +4886,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1504,1388 +5000,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3673,7 +5811,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3871,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>6</v>
@@ -4017,10 +6155,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -4166,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -4315,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -4449,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -4461,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -4598,7 +6736,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -4607,16 +6745,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -4753,22 +6891,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
@@ -4905,19 +7043,19 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -4983,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -5054,25 +7192,25 @@
         <v>99</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -5135,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -5209,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -5284,13 +7422,13 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="2">
         <v>0</v>
       </c>
       <c r="AD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="2">
         <v>0</v>
@@ -5358,7 +7496,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -5367,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -5376,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -5430,16 +7568,16 @@
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
         <v>0</v>
       </c>
       <c r="AC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -5493,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="2">
         <v>0</v>
@@ -5513,19 +7651,19 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -5588,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="2">
         <v>0</v>
       </c>
       <c r="AD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="2">
         <v>0</v>
@@ -5642,13 +7780,13 @@
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2">
         <v>0</v>
       </c>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="2">
         <v>0</v>
@@ -5668,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -5677,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -5734,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
         <v>0</v>
@@ -5746,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2">
         <v>0</v>
@@ -5770,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
@@ -5788,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="AR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>6</v>
@@ -5803,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <v>99</v>
@@ -5820,13 +7958,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -5892,13 +8030,13 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="2">
         <v>0</v>
       </c>
       <c r="AD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="2">
         <v>0</v>
@@ -5907,10 +8045,10 @@
         <v>0</v>
       </c>
       <c r="AG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="2">
         <v>0</v>
@@ -5919,25 +8057,25 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="2">
         <v>0</v>
       </c>
       <c r="AM15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
       </c>
       <c r="AP15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="2">
         <v>0</v>
@@ -5966,16 +8104,16 @@
         <v>99</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -6041,22 +8179,22 @@
         <v>0</v>
       </c>
       <c r="AA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="2">
         <v>0</v>
       </c>
       <c r="AC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
       </c>
       <c r="AE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2">
         <v>0</v>
@@ -6065,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="2">
         <v>1</v>
@@ -6124,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -6270,10 +8408,10 @@
         <v>99</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -6411,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18">
         <v>99</v>
@@ -6428,10 +8566,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -6560,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="2">
         <v>0</v>
@@ -6577,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -6709,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="2">
         <v>0</v>
@@ -6726,15 +8864,15 @@
         <v>99</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2">
@@ -6858,13 +8996,13 @@
         <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="2">
         <v>0</v>
@@ -6880,13 +9018,13 @@
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
@@ -7010,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2">
         <v>0</v>
@@ -7019,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22">
         <v>99</v>
@@ -7030,15 +9168,15 @@
         <v>99</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2">
@@ -7153,25 +9291,25 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="2">
         <v>0</v>
       </c>
       <c r="AU23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="2">
         <v>0</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23">
         <v>99</v>
@@ -7182,7 +9320,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -7191,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -7314,13 +9452,13 @@
         <v>0</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2">
         <v>0</v>
       </c>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="2">
         <v>0</v>
@@ -7337,16 +9475,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -7457,13 +9595,13 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="2">
         <v>0</v>
       </c>
       <c r="AS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="2">
         <v>0</v>
@@ -7472,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="2">
         <v>0</v>
@@ -7489,13 +9627,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -7612,19 +9750,19 @@
         <v>0</v>
       </c>
       <c r="AR26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2">
         <v>0</v>
       </c>
       <c r="AV26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -7638,7 +9776,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -7713,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="2">
         <v>0</v>
@@ -7770,13 +9908,13 @@
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="2">
         <v>0</v>
       </c>
       <c r="AV27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -7793,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -7868,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="2">
         <v>0</v>
@@ -7910,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>0</v>
@@ -7925,13 +10063,13 @@
         <v>0</v>
       </c>
       <c r="AU28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="2">
         <v>0</v>
       </c>
       <c r="AW28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28">
         <v>99</v>
@@ -7945,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -8002,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2">
         <v>0</v>
@@ -8011,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="2">
         <v>0</v>
@@ -8020,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="2">
         <v>0</v>
@@ -8062,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>0</v>
@@ -8077,13 +10215,13 @@
         <v>0</v>
       </c>
       <c r="AU29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="2">
         <v>0</v>
       </c>
       <c r="AW29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29">
         <v>99</v>
@@ -8094,13 +10232,13 @@
         <v>99</v>
       </c>
       <c r="B30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -8147,35 +10285,35 @@
       <c r="S30" s="2">
         <v>0</v>
       </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2">
-        <v>1</v>
-      </c>
-      <c r="V30" s="2">
+      <c r="T30" s="1">
+        <v>6</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
         <v>0</v>
       </c>
       <c r="W30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2">
         <v>0</v>
       </c>
       <c r="Z30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="2">
         <v>0</v>
       </c>
       <c r="AC30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="2">
         <v>0</v>
@@ -8217,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="2">
         <v>1</v>
@@ -8226,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="AT30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="2">
         <v>0</v>
       </c>
       <c r="AV30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="2">
         <v>0</v>
@@ -8246,13 +10384,13 @@
         <v>99</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -8300,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -8312,13 +10450,13 @@
         <v>0</v>
       </c>
       <c r="X31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="2">
         <v>0</v>
       </c>
       <c r="Z31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="2">
         <v>0</v>
@@ -8366,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
@@ -8381,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="AU31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="2">
         <v>0</v>
@@ -8401,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -8533,13 +10671,13 @@
         <v>1</v>
       </c>
       <c r="AU32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="2">
         <v>0</v>
       </c>
       <c r="AW32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX32">
         <v>99</v>
@@ -8550,7 +10688,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -8603,13 +10741,13 @@
       <c r="S33" s="2">
         <v>1</v>
       </c>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1">
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
         <v>0</v>
       </c>
       <c r="W33" s="2">
@@ -8688,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="AV33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="2">
         <v>0</v>
@@ -8705,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -8828,13 +10966,13 @@
         <v>0</v>
       </c>
       <c r="AR34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="2">
         <v>0</v>
       </c>
       <c r="AT34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" s="2">
         <v>0</v>
@@ -8854,7 +10992,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -8980,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="2">
         <v>0</v>
@@ -9135,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AT36" s="2">
         <v>0</v>
@@ -9284,13 +11422,13 @@
         <v>0</v>
       </c>
       <c r="AR37" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AS37" s="2">
         <v>0</v>
       </c>
       <c r="AT37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="1">
         <v>0</v>
@@ -9393,13 +11531,13 @@
       <c r="AC38" s="2">
         <v>0</v>
       </c>
-      <c r="AD38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="2">
+      <c r="AD38" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
         <v>0</v>
       </c>
       <c r="AG38" s="2">
@@ -9439,10 +11577,10 @@
         <v>0</v>
       </c>
       <c r="AS38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="2">
         <v>0</v>
@@ -9468,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -9537,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2">
         <v>0</v>
@@ -9545,13 +11683,13 @@
       <c r="AC39" s="2">
         <v>0</v>
       </c>
-      <c r="AD39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="2">
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
         <v>0</v>
       </c>
       <c r="AG39" s="2">
@@ -9588,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="2">
         <v>0</v>
@@ -9617,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -9689,16 +11827,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="2">
         <v>0</v>
       </c>
       <c r="AC40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="1">
         <v>0</v>
@@ -9740,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="AR40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="2">
         <v>0</v>
@@ -9769,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -9838,24 +11976,24 @@
         <v>0</v>
       </c>
       <c r="Z41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="2">
         <v>0</v>
       </c>
       <c r="AB41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="2">
         <v>0</v>
       </c>
-      <c r="AD41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="1">
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2">
         <v>0</v>
       </c>
       <c r="AG41" s="2">
@@ -9892,7 +12030,7 @@
         <v>10</v>
       </c>
       <c r="AR41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="2">
         <v>0</v>
@@ -9907,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41">
         <v>99</v>
@@ -9918,13 +12056,13 @@
         <v>99</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -9993,7 +12131,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="2">
         <v>0</v>
@@ -10001,13 +12139,13 @@
       <c r="AC42" s="2">
         <v>0</v>
       </c>
-      <c r="AD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="1">
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2">
         <v>0</v>
       </c>
       <c r="AG42" s="2">
@@ -10047,10 +12185,10 @@
         <v>0</v>
       </c>
       <c r="AS42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="2">
         <v>0</v>
@@ -10070,13 +12208,13 @@
         <v>99</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -10136,31 +12274,31 @@
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2">
         <v>0</v>
       </c>
       <c r="Z43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="2">
         <v>0</v>
       </c>
       <c r="AB43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
       </c>
       <c r="AE43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="2">
         <v>0</v>
@@ -10225,13 +12363,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -10291,13 +12429,13 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="2">
         <v>0</v>
       </c>
       <c r="AA44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="2">
         <v>0</v>
@@ -10306,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2">
         <v>0</v>
@@ -10315,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="2">
         <v>0</v>
@@ -10354,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="2">
         <v>0</v>
@@ -10374,13 +12512,13 @@
         <v>99</v>
       </c>
       <c r="B45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -10446,37 +12584,37 @@
         <v>0</v>
       </c>
       <c r="Z45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="2">
         <v>0</v>
       </c>
       <c r="AB45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="2">
         <v>0</v>
       </c>
       <c r="AE45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2">
         <v>0</v>
       </c>
       <c r="AG45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>0</v>
       </c>
       <c r="AK45" s="2">
         <v>0</v>
@@ -10506,10 +12644,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="2">
         <v>0</v>
@@ -10526,15 +12664,15 @@
         <v>99</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46" s="2">
@@ -10598,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="2">
         <v>0</v>
@@ -10610,16 +12748,16 @@
         <v>0</v>
       </c>
       <c r="AD46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2">
         <v>0</v>
       </c>
       <c r="AF46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="1">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0</v>
@@ -10627,7 +12765,7 @@
       <c r="AI46" s="1">
         <v>0</v>
       </c>
-      <c r="AJ46" s="2">
+      <c r="AJ46" s="1">
         <v>0</v>
       </c>
       <c r="AK46" s="2">
@@ -10680,17 +12818,17 @@
       <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -10747,30 +12885,30 @@
         <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="2">
         <v>0</v>
       </c>
       <c r="AA47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="2">
         <v>0</v>
       </c>
       <c r="AE47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2">
         <v>0</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AG47" s="2">
         <v>0</v>
       </c>
       <c r="AH47" s="1">
@@ -10779,7 +12917,7 @@
       <c r="AI47" s="1">
         <v>0</v>
       </c>
-      <c r="AJ47" s="2">
+      <c r="AJ47" s="1">
         <v>0</v>
       </c>
       <c r="AK47" s="2">
@@ -10832,20 +12970,20 @@
       <c r="B48" s="2">
         <v>0</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -10875,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -10884,25 +13022,25 @@
         <v>1</v>
       </c>
       <c r="T48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
       </c>
       <c r="V48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="2">
         <v>0</v>
       </c>
       <c r="Z48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="2">
         <v>0</v>
@@ -10911,34 +13049,34 @@
         <v>0</v>
       </c>
       <c r="AC48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="2">
         <v>0</v>
       </c>
       <c r="AE48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2">
         <v>0</v>
       </c>
-      <c r="AG48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="1">
+      <c r="AG48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="2">
         <v>0</v>
       </c>
       <c r="AJ48" s="2">
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="1">
         <v>6</v>
@@ -10950,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="2">
         <v>0</v>
@@ -11024,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2">
         <v>0</v>
@@ -11039,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="2">
         <v>0</v>
@@ -11051,40 +13189,40 @@
         <v>0</v>
       </c>
       <c r="Y49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="2">
         <v>0</v>
       </c>
       <c r="AA49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="2">
         <v>0</v>
       </c>
       <c r="AD49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2">
         <v>0</v>
       </c>
       <c r="AF49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="2">
         <v>0</v>
       </c>
       <c r="AH49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="2">
         <v>0</v>
       </c>
       <c r="AJ49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="2">
         <v>0</v>
@@ -11114,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="AT49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="1">
         <v>0</v>
@@ -11283,1569 +13421,1569 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="366" priority="464" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
+    <cfRule type="cellIs" dxfId="381" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="465" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="363" priority="462" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
+    <cfRule type="cellIs" dxfId="378" priority="462" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="463" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="361" priority="460" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
+    <cfRule type="cellIs" dxfId="376" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="359" priority="459" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
+    <cfRule type="cellIs" dxfId="374" priority="459" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="358" priority="458" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
+    <cfRule type="cellIs" dxfId="373" priority="458" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:AX43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AG40:AR42 Y46:AF46 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 L49:AK49 Y44:AX44 AR45:AX46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:AX50 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="357" priority="457" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
+    <cfRule type="cellIs" dxfId="372" priority="457" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:AS14 A46:B48 F46:O46 F47:H48 A49:H49 L47:O48 S47:AF48 A44:O45 A43:XFD43 A39:V39 Z39:AR39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AG40:AR42 Y46:AF46 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 L49:AK49 Y44:XFD44 AR45:XFD46 AL46:AQ47 AJ46:AK48 AL48:AL49 AP48:AQ49 A50:XFD1048576 Y45:AQ45 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 G8:H10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 W31:AR31 M32:M35 J32:L32 H40:V41 Z40:AC41 F38:AR38 F36:M37 R37:AR37 R31:S33 R34:AK36 R30:AR30 A24:AW24 N30:Q37 Q2:XFD4 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28">
-    <cfRule type="cellIs" dxfId="356" priority="456" operator="equal">
+  <conditionalFormatting sqref="A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:XFD43 A39:V39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 Y44:XFD44 AR45:XFD46 AL48:AL49 AP48:AQ49 A50:XFD1048576 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:XFD4 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
+    <cfRule type="cellIs" dxfId="371" priority="456" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="355" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="277" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="278" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="279" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="352" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="275" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="276" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="350" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="273" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="274" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="348" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="272" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="347" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="271" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="346" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="270" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="345" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="269" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="344" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="115" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="343" priority="442" operator="equal">
+  <conditionalFormatting sqref="C46:E48 C39:D46">
+    <cfRule type="cellIs" dxfId="358" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="340" priority="440" operator="equal">
+  <conditionalFormatting sqref="C46:E48 C39:D46">
+    <cfRule type="cellIs" dxfId="355" priority="440" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="441" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="338" priority="438" operator="equal">
+  <conditionalFormatting sqref="C46:E48 C39:D46">
+    <cfRule type="cellIs" dxfId="353" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="336" priority="437" operator="equal">
+  <conditionalFormatting sqref="C46:E48 C39:D46">
+    <cfRule type="cellIs" dxfId="351" priority="437" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="335" priority="436" operator="equal">
+  <conditionalFormatting sqref="C46:E48 C39:D46">
+    <cfRule type="cellIs" dxfId="350" priority="436" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="334" priority="435" operator="equal">
+  <conditionalFormatting sqref="C46:E48 C39:D46">
+    <cfRule type="cellIs" dxfId="349" priority="435" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="333" priority="434" operator="equal">
+  <conditionalFormatting sqref="C46:E48 C39:D46">
+    <cfRule type="cellIs" dxfId="348" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="332" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="431" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="432" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="329" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="429" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="430" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="327" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="325" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="426" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="324" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="425" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="323" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="424" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="322" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="423" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="321" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="409" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="410" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="411" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="318" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="407" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="408" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="316" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="405" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="406" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="314" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="404" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="313" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="403" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="312" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="402" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="311" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="401" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="310" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="398" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="307" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="397" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="305" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="394" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="303" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="393" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="302" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="392" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="301" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="391" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="300" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="390" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="299" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="354" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="356" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="296" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="352" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="353" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="294" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="350" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="351" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="292" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="349" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="291" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="348" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="290" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="347" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="289" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="346" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="288" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="377" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="285" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="374" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="375" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="283" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="372" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="373" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="281" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="371" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="280" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="370" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="279" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="369" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="278" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="368" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="277" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="145" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="146" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="147" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="274" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="143" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="144" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="272" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="141" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="142" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="270" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="140" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="269" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="139" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="268" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="138" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="267" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="137" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="266" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="343" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="344" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="263" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="341" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="342" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="261" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="340" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="259" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="338" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="258" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="337" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="257" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="336" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="256" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="335" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="255" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="252" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="250" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="248" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="217" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="247" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="216" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="246" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="215" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="245" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="214" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="244" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="211" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="212" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="241" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="209" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="210" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="239" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="207" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="208" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="237" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="206" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="205" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="235" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="204" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="234" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="203" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="233" priority="299" operator="equal">
+  <conditionalFormatting sqref="AD38:AF40">
+    <cfRule type="cellIs" dxfId="248" priority="299" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="300" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="230" priority="297" operator="equal">
+  <conditionalFormatting sqref="AD38:AF40">
+    <cfRule type="cellIs" dxfId="245" priority="297" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="298" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="228" priority="295" operator="equal">
+  <conditionalFormatting sqref="AD38:AF40">
+    <cfRule type="cellIs" dxfId="243" priority="295" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="296" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="226" priority="294" operator="equal">
+  <conditionalFormatting sqref="AD38:AF40">
+    <cfRule type="cellIs" dxfId="241" priority="294" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="225" priority="293" operator="equal">
+  <conditionalFormatting sqref="AD38:AF40">
+    <cfRule type="cellIs" dxfId="240" priority="293" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
+  <conditionalFormatting sqref="AD38:AF40">
+    <cfRule type="cellIs" dxfId="239" priority="292" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="223" priority="291" operator="equal">
+  <conditionalFormatting sqref="AD38:AF40">
+    <cfRule type="cellIs" dxfId="238" priority="291" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="222" priority="288" operator="equal">
+  <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
+    <cfRule type="cellIs" dxfId="237" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="289" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="219" priority="286" operator="equal">
+  <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
+    <cfRule type="cellIs" dxfId="234" priority="286" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="287" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="217" priority="284" operator="equal">
+  <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
+    <cfRule type="cellIs" dxfId="232" priority="284" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="285" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="215" priority="283" operator="equal">
+  <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
+    <cfRule type="cellIs" dxfId="230" priority="283" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="214" priority="282" operator="equal">
+  <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
+    <cfRule type="cellIs" dxfId="229" priority="282" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="213" priority="281" operator="equal">
+  <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
+    <cfRule type="cellIs" dxfId="228" priority="281" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46:AI48">
-    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
+  <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
+    <cfRule type="cellIs" dxfId="227" priority="280" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="211" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="266" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="208" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="264" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="265" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="206" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="204" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="261" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="203" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="260" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="202" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="259" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="201" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="258" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="200" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="255" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="256" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="197" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="254" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="195" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="251" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="193" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="250" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="192" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="249" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="191" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="248" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="190" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="247" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="189" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="134" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="186" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="132" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="133" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="184" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="130" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="131" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="182" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="181" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="128" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="180" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="127" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="179" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="126" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="178" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="233" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="234" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="175" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="231" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="232" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="173" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="229" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="230" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="171" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="228" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="170" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="169" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="226" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="168" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="225" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="167" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="201" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="164" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="198" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="199" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="162" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="196" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="197" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="160" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="195" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="159" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="194" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="158" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="193" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="157" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="192" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="156" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="189" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="190" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="187" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="188" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="151" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="186" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="149" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="148" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="183" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="147" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="182" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="146" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="181" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="145" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="178" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="142" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="176" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="177" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="140" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="175" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="138" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="173" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="137" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="136" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="171" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="135" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="134" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="167" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="168" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="131" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="165" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="166" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="163" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="164" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="127" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="162" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="126" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="161" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="125" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="124" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="159" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="123" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="157" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="120" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="154" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="155" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="118" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="152" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="153" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="116" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="151" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="115" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="114" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="149" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="148" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="112" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="122" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="107" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="119" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="120" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="105" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="118" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="103" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="102" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="97" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="108" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="95" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="107" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="106" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="93" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="105" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="101" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="88" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="83" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="95" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="94" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="90" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="75" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="73" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="79" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="78" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="62" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <conditionalFormatting sqref="T30:V32">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="T30:V32">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="T30:V32">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="T30:V32">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="T30:V32">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="T30:V32">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31:V33">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="T30:V32">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -108,7 +108,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="648">
+  <dxfs count="735">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -119,6 +140,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF333399"/>
         </patternFill>
       </fill>
@@ -224,34 +259,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -941,6 +948,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1027,6 +1110,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2747,6 +2840,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2919,6 +3022,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -3090,34 +3269,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3204,34 +3355,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3318,34 +3441,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3432,34 +3527,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3546,34 +3613,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3660,34 +3699,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3774,30 +3785,78 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3888,34 +3947,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4088,34 +4119,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4202,34 +4205,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4316,34 +4291,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4430,34 +4377,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4544,34 +4463,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4658,34 +4549,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4772,34 +4635,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -4886,34 +4721,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -5000,30 +4807,958 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5811,7 +6546,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6197,7 +6932,7 @@
         <v>5</v>
       </c>
       <c r="Y3" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="2">
         <v>0</v>
@@ -7249,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -7449,7 +8184,7 @@
         <v>5</v>
       </c>
       <c r="AK11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL11" s="2">
         <v>0</v>
@@ -7687,7 +8422,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -9079,7 +9814,7 @@
         <v>5</v>
       </c>
       <c r="W22" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -9502,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -9562,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="2">
         <v>0</v>
@@ -10191,7 +10926,7 @@
         <v>5</v>
       </c>
       <c r="AM29" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN29" s="2">
         <v>0</v>
@@ -11410,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="2">
         <v>0</v>
@@ -12101,7 +12836,7 @@
         <v>5</v>
       </c>
       <c r="Q42" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -12316,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="2">
         <v>0</v>
@@ -12486,7 +13221,7 @@
         <v>5</v>
       </c>
       <c r="AR44" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS44" s="2">
         <v>0</v>
@@ -13422,1568 +14157,1571 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="381" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="465" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="466" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="467" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="378" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="463" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="464" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="376" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="462" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="374" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="373" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="459" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="372" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="458" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:XFD43 A39:V39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 Y44:XFD44 AR45:XFD46 AL48:AL49 AP48:AQ49 A50:XFD1048576 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:XFD4 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="371" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="457" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="370" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="278" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="280" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="367" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="276" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="277" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="365" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="274" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="275" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="363" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="273" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="362" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="272" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="361" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="271" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="360" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="270" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="359" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="116" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="358" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="443" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="444" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="445" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="355" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="441" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="442" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="353" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="440" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="351" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="350" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="437" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="349" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="436" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="348" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="435" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="347" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="433" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="344" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="430" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="431" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="342" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="429" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="340" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="339" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="426" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="338" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="425" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="337" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="424" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="336" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="410" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="411" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="412" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="333" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="408" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="409" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="331" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="406" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="407" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="329" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="405" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="328" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="404" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="327" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="403" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="326" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="402" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="325" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="399" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="400" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="401" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="322" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="397" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="398" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="320" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="396" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="318" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="394" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="317" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="393" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="316" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="392" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="315" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="391" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="314" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="355" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="356" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="357" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="311" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="353" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="354" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="309" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="351" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="352" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="307" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="350" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="306" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="349" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="305" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="348" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="304" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="347" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="303" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="377" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="378" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="379" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="300" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="375" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="376" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="298" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="373" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="374" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="296" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="372" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="295" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="371" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="294" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="370" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="293" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="369" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="292" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="146" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="289" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="144" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="145" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="287" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="142" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="143" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="285" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="141" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="284" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="140" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="283" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="139" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="282" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="138" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="281" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="345" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="278" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="342" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="343" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="276" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="340" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="341" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="274" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="273" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="338" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="272" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="337" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="271" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="336" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="270" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="223" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="224" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="225" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="267" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="221" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="222" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="265" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="220" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="263" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="262" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="217" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="261" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="216" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="260" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="215" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="259" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="213" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="256" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="210" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="211" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="254" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="208" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="209" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="252" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="207" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="251" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="206" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="250" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="205" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="249" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="204" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="248" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="301" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="245" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="298" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="299" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="243" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="296" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="297" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="241" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="295" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="240" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="294" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="239" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="293" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="238" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="292" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="237" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="289" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="290" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="291" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="234" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="287" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="288" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="232" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="285" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="286" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="230" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="284" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="229" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="283" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="228" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="282" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="227" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="281" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="226" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="267" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="268" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="223" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="265" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="266" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="221" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="264" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="219" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="218" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="261" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="217" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="260" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="216" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="259" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="215" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="257" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="212" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="254" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="255" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="210" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="253" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="208" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="251" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="207" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="250" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="206" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="249" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="205" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="248" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="204" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="135" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="136" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="201" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="133" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="134" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="199" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="131" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="132" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="197" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="130" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="196" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="129" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="195" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="128" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="194" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="127" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="193" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="234" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="235" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="236" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="190" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="232" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="233" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="188" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="230" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="231" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="186" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="229" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="228" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="184" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="227" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="183" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="226" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="182" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="201" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="202" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="203" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="179" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="199" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="200" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="177" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="197" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="198" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="175" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="196" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="174" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="195" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="173" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="194" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="172" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="193" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="171" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="190" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="168" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="188" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="189" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="166" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="186" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="187" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="163" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="184" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="162" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="183" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="161" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="182" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="160" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="179" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="180" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="157" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="177" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="178" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="155" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="175" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="176" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="153" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="152" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="173" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="151" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="172" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="171" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="149" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="169" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="146" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="166" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="167" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="144" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="164" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="165" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="142" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="163" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="141" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="162" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="140" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="161" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="139" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="160" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="138" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="157" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="158" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="159" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="135" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="155" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="156" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="133" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="153" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="154" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="131" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="152" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="151" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="129" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="150" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="128" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="149" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="125" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="122" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="123" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="122" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="120" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="121" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="120" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="119" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="118" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="117" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="117" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="113" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="114" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="111" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="112" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="112" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="110" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="110" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="108" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="109" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="107" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="108" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="106" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="105" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="106" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="102" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="100" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="101" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="98" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="99" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="97" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="98" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="96" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="97" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="95" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="94" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="95" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="91" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="92" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="89" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="90" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="87" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="88" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="86" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="85" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="84" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="83" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="84" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="81" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="79" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="77" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="74" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="73" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="72" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="69" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="70" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="67" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="68" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="65" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="66" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="64" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="65" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="63" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="62" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="61" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="58" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="56" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="57" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="54" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="55" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="52" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="51" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="50" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="48" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="45" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="46" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="41" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="40" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="39" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="34" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="33" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="30" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="29" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="28" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="7" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="6" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Star Regein/Star Regein/MercuryGemini.xlsx
+++ b/Star Regein/Star Regein/MercuryGemini.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\GA2B 田中\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +73,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -88,7 +94,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -104,2909 +110,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="735">
+  <dxfs count="370">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6546,7 +3703,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6756,22 +3913,22 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
@@ -6896,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -6908,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>1</v>
@@ -6920,19 +4077,19 @@
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="2">
         <v>0</v>
@@ -7045,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -7075,19 +4232,19 @@
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2">
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="2">
         <v>0</v>
@@ -7233,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
@@ -7343,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -7361,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
@@ -7388,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="2">
         <v>1</v>
@@ -7403,16 +4560,16 @@
         <v>0</v>
       </c>
       <c r="AD6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF6" s="2">
         <v>0</v>
       </c>
       <c r="AG6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH6" s="2">
         <v>0</v>
@@ -7495,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -7510,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -7534,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="2">
         <v>1</v>
@@ -7546,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="2">
         <v>1</v>
@@ -7811,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
@@ -7853,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="2">
         <v>0</v>
@@ -7862,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF9" s="2">
         <v>0</v>
@@ -7945,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -7960,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -7993,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="X10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -8005,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2">
         <v>0</v>
@@ -8014,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF10" s="2">
         <v>0</v>
@@ -8097,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -8109,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
@@ -8139,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="2">
         <v>1</v>
@@ -8151,13 +5308,13 @@
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="2">
         <v>0</v>
@@ -8249,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -8258,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -8293,13 +5450,13 @@
       <c r="V12" s="2">
         <v>1</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="2">
+      <c r="W12" s="5">
+        <v>16</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
         <v>0</v>
       </c>
       <c r="Z12" s="2">
@@ -8401,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -8440,19 +5597,19 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
       </c>
       <c r="Z13" s="2">
         <v>0</v>
@@ -8553,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -8592,22 +5749,22 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="2">
+        <v>15</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="2">
         <v>0</v>
@@ -8616,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -8702,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -8711,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -8744,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
         <v>6</v>
@@ -8756,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="2">
         <v>0</v>
@@ -8893,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="2">
         <v>1</v>
@@ -8911,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="2">
         <v>0</v>
@@ -8953,16 +6110,16 @@
         <v>0</v>
       </c>
       <c r="AN16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="2">
         <v>1</v>
       </c>
       <c r="AP16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="2">
         <v>1</v>
@@ -9015,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -9048,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
@@ -9060,25 +6217,25 @@
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="2">
         <v>1</v>
       </c>
       <c r="AA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1">
         <v>6</v>
@@ -9167,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -9203,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="2">
         <v>1</v>
@@ -9316,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -9358,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2">
         <v>1</v>
@@ -9394,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="2">
         <v>1</v>
@@ -9403,10 +6560,10 @@
         <v>1</v>
       </c>
       <c r="AL19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="2">
         <v>1</v>
@@ -9465,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -9537,10 +6694,10 @@
         <v>1</v>
       </c>
       <c r="AF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="2">
         <v>1</v>
@@ -9561,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="AN20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -9668,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="2">
         <v>1</v>
@@ -9677,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="AB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="2">
         <v>1</v>
       </c>
       <c r="AE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="2">
         <v>1</v>
@@ -9766,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -9868,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="AO22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="2">
         <v>1</v>
@@ -9880,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="2">
         <v>0</v>
@@ -9912,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -10017,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" s="2">
         <v>1</v>
@@ -10032,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="2">
         <v>0</v>
@@ -10064,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -10172,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="AO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="2">
         <v>0</v>
@@ -10184,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="2">
         <v>0</v>
@@ -10213,16 +7370,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -10327,19 +7484,19 @@
         <v>1</v>
       </c>
       <c r="AP25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25" s="2">
         <v>0</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2">
         <v>0</v>
@@ -10365,16 +7522,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -10434,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="2">
         <v>1</v>
@@ -10482,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="AQ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26" s="2">
         <v>0</v>
@@ -10491,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2">
         <v>0</v>
@@ -10529,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2">
         <v>11</v>
@@ -10589,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="2">
         <v>1</v>
@@ -10646,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV27" s="2">
         <v>0</v>
@@ -10678,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -10744,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -10798,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV28" s="2">
         <v>0</v>
@@ -10950,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="AU29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="2">
         <v>0</v>
@@ -10982,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -10997,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M30" s="2">
         <v>11</v>
@@ -11096,13 +8253,13 @@
         <v>1</v>
       </c>
       <c r="AS30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="2">
         <v>0</v>
       </c>
       <c r="AU30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30" s="2">
         <v>0</v>
@@ -11134,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -11149,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -11197,10 +8354,10 @@
         <v>0</v>
       </c>
       <c r="AB31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="2">
         <v>1</v>
@@ -11254,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV31" s="2">
         <v>0</v>
@@ -11280,19 +8437,19 @@
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -11301,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
@@ -11319,7 +8476,7 @@
         <v>11</v>
       </c>
       <c r="R32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="2">
         <v>1</v>
@@ -11337,13 +8494,13 @@
         <v>0</v>
       </c>
       <c r="X32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="2">
         <v>1</v>
       </c>
       <c r="Z32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="2">
         <v>1</v>
@@ -11400,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="2">
         <v>1</v>
@@ -11409,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="AV32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW32" s="2">
         <v>0</v>
@@ -11429,19 +8586,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
@@ -11456,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -11471,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="2">
         <v>1</v>
@@ -11483,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="2">
         <v>1</v>
@@ -11555,13 +8712,13 @@
         <v>1</v>
       </c>
       <c r="AT33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" s="2">
         <v>0</v>
       </c>
       <c r="AV33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33" s="2">
         <v>0</v>
@@ -11590,13 +8747,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -11626,10 +8783,10 @@
         <v>1</v>
       </c>
       <c r="S34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
@@ -11713,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="2">
         <v>0</v>
@@ -11739,16 +8896,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -11760,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2">
         <v>11</v>
@@ -11894,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -11903,10 +9060,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -12046,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -12109,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="AB37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="2">
         <v>1</v>
@@ -12118,13 +9275,13 @@
         <v>1</v>
       </c>
       <c r="AE37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" s="2">
         <v>1</v>
       </c>
       <c r="AG37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="2">
         <v>0</v>
@@ -12195,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -12252,19 +9409,19 @@
         <v>1</v>
       </c>
       <c r="Y38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="2">
         <v>1</v>
       </c>
       <c r="AC38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="1">
         <v>6</v>
@@ -12350,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -12505,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
@@ -12535,19 +9692,19 @@
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -12562,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="AA40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="1">
         <v>0</v>
@@ -12580,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="AG40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="2">
         <v>0</v>
@@ -12657,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
@@ -12684,22 +9841,22 @@
         <v>0</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="2">
         <v>1</v>
       </c>
       <c r="V41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -12708,13 +9865,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41" s="2">
         <v>0</v>
@@ -12723,19 +9880,19 @@
         <v>0</v>
       </c>
       <c r="AD41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="2">
         <v>1</v>
       </c>
       <c r="AH41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="2">
         <v>0</v>
@@ -12830,34 +9987,34 @@
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P42" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="2">
-        <v>10</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>1</v>
-      </c>
-      <c r="W42" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U42" s="5">
+        <v>16</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
       </c>
       <c r="X42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="2">
         <v>0</v>
@@ -12887,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AI42" s="2">
         <v>0</v>
@@ -12988,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
@@ -12999,13 +10156,13 @@
       <c r="T43" s="2">
         <v>0</v>
       </c>
-      <c r="U43" s="2">
-        <v>1</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2">
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="5">
         <v>0</v>
       </c>
       <c r="X43" s="2">
@@ -13021,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="2">
         <v>0</v>
@@ -13033,13 +10190,13 @@
         <v>0</v>
       </c>
       <c r="AF43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43" s="2">
         <v>0</v>
       </c>
       <c r="AH43" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AI43" s="2">
         <v>0</v>
@@ -13137,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
@@ -13151,23 +10308,23 @@
       <c r="T44" s="2">
         <v>0</v>
       </c>
-      <c r="U44" s="2">
-        <v>1</v>
-      </c>
-      <c r="V44" s="1">
-        <v>6</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0</v>
-      </c>
-      <c r="X44" s="1">
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="2">
         <v>0</v>
@@ -13182,16 +10339,16 @@
         <v>0</v>
       </c>
       <c r="AE44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="2">
         <v>1</v>
@@ -13262,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -13289,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -13304,37 +10461,37 @@
         <v>0</v>
       </c>
       <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
-      </c>
-      <c r="X45" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2">
+        <v>1</v>
       </c>
       <c r="Y45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45" s="2">
         <v>0</v>
@@ -13420,10 +10577,10 @@
         <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
@@ -13458,14 +10615,14 @@
       <c r="U46" s="2">
         <v>1</v>
       </c>
-      <c r="V46" s="1">
-        <v>0</v>
-      </c>
-      <c r="W46" s="1">
-        <v>0</v>
-      </c>
-      <c r="X46" s="1">
-        <v>0</v>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
+      <c r="W46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2">
+        <v>1</v>
       </c>
       <c r="Y46" s="2">
         <v>0</v>
@@ -13507,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="AL46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="2">
         <v>1</v>
@@ -13519,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
@@ -13593,22 +10750,22 @@
         <v>1</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2">
         <v>1</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2">
         <v>1</v>
       </c>
       <c r="U47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="2">
         <v>1</v>
@@ -13656,22 +10813,22 @@
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="2">
         <v>1</v>
       </c>
       <c r="AM47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO47" s="2">
         <v>1</v>
       </c>
       <c r="AP47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47" s="2">
         <v>1</v>
@@ -13736,13 +10893,13 @@
         <v>1</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>1</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -13751,13 +10908,13 @@
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="2">
         <v>1</v>
       </c>
       <c r="T48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
@@ -13826,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48" s="2">
         <v>1</v>
@@ -13835,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="AT48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU48" s="1">
         <v>0</v>
@@ -14156,1572 +11313,1578 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="734" priority="465" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 L47:O48 A44:O45 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A8:C10 L8:X10 A5:J7 A2:M4 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 T33:V33 G29:AR29 W30:AR31 A30:H33 A43:AX43 H42:AH42 AG42:AG43 Q2:AX4 A14:AS14 A11:AX13 U42:W44 X44:X46 V45:W46">
+    <cfRule type="cellIs" dxfId="369" priority="467" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="468" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="469" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="731" priority="463" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 L47:O48 A44:O45 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A8:C10 L8:X10 A5:J7 A2:M4 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 T33:V33 G29:AR29 W30:AR31 A30:H33 A43:AX43 H42:AH42 AG42:AG43 Q2:AX4 A14:AS14 A11:AX13 U42:W44 X44:X46 V45:W46">
+    <cfRule type="cellIs" dxfId="366" priority="465" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="466" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="729" priority="461" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 L47:O48 A44:O45 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A8:C10 L8:X10 A5:J7 A2:M4 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 T33:V33 G29:AR29 W30:AR31 A30:H33 A43:AX43 H42:AH42 AG42:AG43 Q2:AX4 A14:AS14 A11:AX13 U42:W44 X44:X46 V45:W46">
+    <cfRule type="cellIs" dxfId="364" priority="463" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="464" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="727" priority="460" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 L47:O48 A44:O45 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A8:C10 L8:X10 A5:J7 A2:M4 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 T33:V33 G29:AR29 W30:AR31 A30:H33 A43:AX43 H42:AH42 AG42:AG43 Q2:AX4 A14:AS14 A11:AX13 U42:W44 X44:X46 V45:W46">
+    <cfRule type="cellIs" dxfId="362" priority="462" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="726" priority="459" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 L47:O48 A44:O45 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A8:C10 L8:X10 A5:J7 A2:M4 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 T33:V33 G29:AR29 W30:AR31 A30:H33 A43:AX43 H42:AH42 AG42:AG43 Q2:AX4 A14:AS14 A11:AX13 U42:W44 X44:X46 V45:W46">
+    <cfRule type="cellIs" dxfId="361" priority="461" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:AX43 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:AX13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:AX4 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="725" priority="458" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 A46:B48 A49:H49 L47:O48 A44:O45 A39:V39 A26:W26 A15:U15 AB8:AX10 A25:AX25 AX47:AX49 S44:U46 P44:R48 A36:B38 A21:B23 AX19:AX24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:AX18 AS19:AW19 AW14:AX16 AX26:AX42 AU26:AW31 Y44:AX44 AR45:AX46 AL48:AL49 AP48:AQ49 A50:AX50 AR47:AT49 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A8:C10 L8:X10 A5:J7 A2:M4 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 O14:P15 M23:N24 AL32:AR36 N5:AX7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 T33:V33 G29:AR29 W30:AR31 A30:H33 A43:AX43 H42:AH42 AG42:AG43 Q2:AX4 A14:AS14 A11:AX13 U42:W44 X44:X46 V45:W46">
+    <cfRule type="cellIs" dxfId="360" priority="460" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:AS14 A46:B48 A49:H49 L47:O48 A44:O45 A43:XFD43 A39:V39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 Y44:XFD44 AR45:XFD46 AL48:AL49 AP48:AQ49 A50:XFD1048576 AR47:AT49 A30:H33 A27:C29 G27:W28 G29:AR29 J18:AA18 A16:F18 J16:U17 A11:XFD13 A8:C10 L8:X10 A5:J7 A2:M4 H42:AC42 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 Q2:XFD4 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 W30:AR31 T33:V33">
-    <cfRule type="cellIs" dxfId="724" priority="457" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 L47:O48 A44:O45 A39:V39 A26:W26 A15:U15 AB8:XFD10 A25:XFD25 AX47:XFD49 A1:XFD1 S44:U46 P44:R48 A36:B38 A21:B23 AX19:XFD24 F21:AW23 A19:AA20 Y15:AS15 AE20:AW20 AE18:AE19 AI19:AO19 Y17:AE17 AI17:AJ18 Y16:AJ16 AN16:AS16 AN17:AO18 AS17:XFD18 AS19:AW19 AW14:XFD16 AX26:XFD42 AU26:AW31 Y44:XFD44 AR45:XFD46 AL48:AL49 AP48:AQ49 A50:XFD1048576 AR47:AT49 A27:C29 G27:W28 J18:AA18 A16:F18 J16:U17 A8:C10 L8:X10 A5:J7 A2:M4 A40:D42 I32:I33 A34:I35 W32:AK33 I30:M31 M32:M35 J32:L32 H40:V41 Z39:AC41 F38:AC38 F36:M37 R37:AR37 R34:AK36 R30:S33 A24:AW24 N30:Q37 O14:P15 M23:N24 AL32:AR36 N5:XFD7 S23:T24 AA26:AR28 AC9:AC11 AK45:AQ47 Y45:AG46 AH48:AK48 AG38:AR42 AD41:AF42 L49:AK49 S47:AG48 C46:O46 C47:H48 B39:D46 B30:D34 B24:C30 B5:B23 C6:C19 D11:E17 C20:E23 D5:H10 T33:V33 G29:AR29 W30:AR31 A30:H33 A43:XFD43 H42:AH42 AG42:AG43 Q2:XFD4 A14:AS14 A11:XFD13 U42:W44 X44:X46 V45:W46">
+    <cfRule type="cellIs" dxfId="359" priority="459" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="723" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="281" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="720" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="278" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="279" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="718" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="276" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="277" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="716" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="275" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="715" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="274" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="714" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="273" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="713" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="272" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="712" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="118" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="711" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="445" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="446" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="447" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="708" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="443" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="444" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="706" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="441" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="442" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="704" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="440" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="703" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="439" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="702" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="438" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48 C39:D46">
-    <cfRule type="cellIs" dxfId="701" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="437" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="700" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="434" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="435" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="436" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="697" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="432" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="433" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="695" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="430" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="431" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="693" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="429" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="692" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="428" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="691" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="427" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="690" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="426" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="689" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="412" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="413" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="686" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="410" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="411" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="684" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="408" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="409" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="682" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="407" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="681" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="406" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="680" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="405" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="679" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="404" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="678" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="401" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="402" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="403" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="675" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="399" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="400" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="673" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="397" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="398" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="671" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="396" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="670" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="395" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="669" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="394" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:Y41">
-    <cfRule type="cellIs" dxfId="668" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="393" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="667" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="357" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="358" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="359" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="664" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="355" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="356" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="662" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="353" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="354" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="660" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="352" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="659" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="351" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="658" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="350" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="657" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="349" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="656" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="379" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="380" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="381" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="653" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="377" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="378" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="651" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="375" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="376" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="649" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="374" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="648" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="373" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="647" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="372" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z28">
-    <cfRule type="cellIs" dxfId="646" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="371" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="645" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="149" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="642" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="146" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="147" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="640" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="144" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="145" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="638" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="143" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="637" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="142" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="636" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="141" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="635" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="140" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="634" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="346" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="348" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="631" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="344" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="345" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="629" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="342" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="343" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="627" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="341" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="626" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="340" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="625" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="339" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AA10">
-    <cfRule type="cellIs" dxfId="624" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="338" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="623" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="225" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="226" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="227" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="620" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="223" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="224" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="618" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="221" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="222" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="616" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="220" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="615" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="219" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="614" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="218" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AD20">
-    <cfRule type="cellIs" dxfId="613" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="217" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="612" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="214" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="609" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="212" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="213" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="607" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="210" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="211" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="605" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="209" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="604" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="208" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="603" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="207" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="602" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="206" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="601" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="302" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="304" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="598" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="300" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="301" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="596" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="298" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="299" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="594" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="297" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="593" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="592" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="295" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38:AF40">
-    <cfRule type="cellIs" dxfId="591" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="294" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="590" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="291" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="293" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="587" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="289" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="290" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="585" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="287" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="288" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="583" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="286" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="582" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="285" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="581" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AJ47 AH48:AI48">
-    <cfRule type="cellIs" dxfId="580" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="283" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="579" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="269" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="270" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="271" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="576" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="267" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="268" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="574" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="265" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="266" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="572" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="264" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="571" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="263" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="570" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="262" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="569" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="261" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="568" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="258" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="260" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="565" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="256" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="257" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="563" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="254" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="255" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="561" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="253" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="560" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="252" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="559" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="251" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E38">
-    <cfRule type="cellIs" dxfId="558" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="250" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="557" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="137" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="138" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="554" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="135" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="136" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="552" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="133" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="134" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="550" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="132" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="549" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="131" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="548" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="130" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="547" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="129" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="546" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="237" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="543" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="234" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="235" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="541" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="232" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="233" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="539" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="231" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="538" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="230" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="537" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="229" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="536" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="228" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="535" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="203" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="204" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="205" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="532" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="201" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="202" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="530" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="200" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="528" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="198" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="527" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="197" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="526" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="196" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM18">
-    <cfRule type="cellIs" dxfId="525" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="195" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="524" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="193" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="521" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="190" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="191" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="519" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="188" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="189" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="517" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="187" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="516" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="186" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="515" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="185" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="514" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="184" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="513" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="181" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="182" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="183" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="510" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="179" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="180" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="508" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="177" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="178" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="506" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="176" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="505" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="175" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="504" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="174" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="503" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="173" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="502" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="170" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="499" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="168" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="169" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="497" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="166" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="167" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="495" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="165" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="494" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="164" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="493" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="163" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AW39:AW41 AP27:AP29 AS27:AT29 AP26:AT26 AP30:AT31">
-    <cfRule type="cellIs" dxfId="492" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="162" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="491" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="159" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="160" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="488" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="157" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="158" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="486" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="484" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="154" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="483" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="153" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="482" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="152" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="481" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="151" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="480" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="126" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="477" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="125" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="475" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="473" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="121" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="472" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="120" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27:AS29">
-    <cfRule type="cellIs" dxfId="471" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="119" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="470" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="116" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="117" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="467" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="113" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="114" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="465" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="111" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="112" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="463" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="462" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="109" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="461" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="460" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="107" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="459" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="105" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="456" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="102" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="103" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="454" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="100" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="101" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="452" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="99" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="451" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="450" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="97" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="449" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="448" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="93" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="445" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="91" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="92" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="443" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="89" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="90" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="441" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="88" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="440" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="87" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="439" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F10">
-    <cfRule type="cellIs" dxfId="438" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="85" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="437" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="82" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="434" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="80" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="81" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="432" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="78" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="430" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="77" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="429" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="428" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="427" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="426" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="423" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="70" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="421" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="419" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="418" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="65" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="417" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="416" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="415" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="412" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="410" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="408" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="407" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="406" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:P4">
-    <cfRule type="cellIs" dxfId="405" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="404" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="401" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="399" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="397" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="396" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="395" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="394" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="393" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="390" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="388" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="386" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="385" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="384" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="383" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="382" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="379" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="377" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="375" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="374" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="373" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V32">
-    <cfRule type="cellIs" dxfId="372" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
